--- a/bdd_excel/Themes.xlsx
+++ b/bdd_excel/Themes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucap\Desktop\Ecole\ENSEIRB\S7\SGBD\Projet\BDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florianbour/Desktop/ENSEIRB/2A/SGBD/sgbd-jeux/bdd_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86458C6-F5D2-45D4-BF78-04292E1BBEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558E9CA9-CD82-4242-823D-2D9BA3AFA724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1973DA2E-D025-4470-8475-CFA6B41A65AF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10300" xr2:uid="{1973DA2E-D025-4470-8475-CFA6B41A65AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,67 +35,67 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <t>Asie</t>
-  </si>
-  <si>
-    <t>Animaux</t>
-  </si>
-  <si>
-    <t>Aquatique</t>
-  </si>
-  <si>
-    <t>Fantastique</t>
-  </si>
-  <si>
-    <t>Pirates</t>
-  </si>
-  <si>
-    <t>Tropical</t>
-  </si>
-  <si>
-    <t>Jungle</t>
-  </si>
-  <si>
-    <t>Grec</t>
-  </si>
-  <si>
-    <t>Automobile</t>
-  </si>
-  <si>
-    <t>Urbain</t>
-  </si>
-  <si>
-    <t>Oriental</t>
-  </si>
-  <si>
-    <t>Medieval</t>
-  </si>
-  <si>
-    <t>Futuriste</t>
-  </si>
-  <si>
-    <t>Egypte</t>
-  </si>
-  <si>
-    <t>Policier</t>
-  </si>
-  <si>
-    <t>Voyage</t>
-  </si>
-  <si>
-    <t>Abstrait</t>
-  </si>
-  <si>
-    <t>Decoration</t>
-  </si>
-  <si>
     <t>id_theme</t>
   </si>
   <si>
     <t>description_theme</t>
   </si>
   <si>
-    <t>Mythologie</t>
+    <t>'Asie'</t>
+  </si>
+  <si>
+    <t>'Animaux'</t>
+  </si>
+  <si>
+    <t>'Aquatique'</t>
+  </si>
+  <si>
+    <t>'Fantastique'</t>
+  </si>
+  <si>
+    <t>'Pirates'</t>
+  </si>
+  <si>
+    <t>'Tropical'</t>
+  </si>
+  <si>
+    <t>'Jungle'</t>
+  </si>
+  <si>
+    <t>'Grec'</t>
+  </si>
+  <si>
+    <t>'Automobile'</t>
+  </si>
+  <si>
+    <t>'Urbain'</t>
+  </si>
+  <si>
+    <t>'Oriental'</t>
+  </si>
+  <si>
+    <t>'Medieval'</t>
+  </si>
+  <si>
+    <t>'Futuriste'</t>
+  </si>
+  <si>
+    <t>'Egypte'</t>
+  </si>
+  <si>
+    <t>'Policier'</t>
+  </si>
+  <si>
+    <t>'Voyage'</t>
+  </si>
+  <si>
+    <t>'Abstrait'</t>
+  </si>
+  <si>
+    <t>'Decoration'</t>
+  </si>
+  <si>
+    <t>'Mythologie'</t>
   </si>
 </sst>
 </file>
@@ -450,167 +450,167 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
